--- a/display_detection/Data_processing/scales_KERN_FCE_3K1N.xlsx
+++ b/display_detection/Data_processing/scales_KERN_FCE_3K1N.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\venv311\Detection_system_06_02_24\Data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\camera_detection_system\display_detection\Data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC88B22-D7F5-4CB9-BE64-FF9306F6B7EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C8B776-237B-4295-A20B-2118987E820E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{860D2691-53C4-4380-859B-F1048DDEB91E}"/>
   </bookViews>
   <sheets>
-    <sheet name="22.02.2024" sheetId="7" r:id="rId1"/>
-    <sheet name="15.02.2024" sheetId="6" r:id="rId2"/>
-    <sheet name="14.02.2024" sheetId="5" r:id="rId3"/>
-    <sheet name="12.02.2024" sheetId="4" r:id="rId4"/>
-    <sheet name="09.02.2024" sheetId="3" r:id="rId5"/>
-    <sheet name="07.02.2024" sheetId="2" r:id="rId6"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId7"/>
+    <sheet name="02.04.2024" sheetId="8" r:id="rId1"/>
+    <sheet name="22.02.2024" sheetId="7" r:id="rId2"/>
+    <sheet name="15.02.2024" sheetId="6" r:id="rId3"/>
+    <sheet name="14.02.2024" sheetId="5" r:id="rId4"/>
+    <sheet name="12.02.2024" sheetId="4" r:id="rId5"/>
+    <sheet name="09.02.2024" sheetId="3" r:id="rId6"/>
+    <sheet name="07.02.2024" sheetId="2" r:id="rId7"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="10">
   <si>
     <t>Measuring value1 and time</t>
   </si>
@@ -127,6 +128,526 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight measurement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.04.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.38468750000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>0.38728009259259261</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.38792824074074073</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="h:mm:ss">
+                  <c:v>0.38840277777777782</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm:ss">
+                  <c:v>0.38886574074074076</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm:ss">
+                  <c:v>0.38929398148148148</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm:ss">
+                  <c:v>0.38976851851851851</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm:ss">
+                  <c:v>0.39013888888888887</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm:ss">
+                  <c:v>0.39053240740740741</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm:ss">
+                  <c:v>0.39098379629629632</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="h:mm:ss">
+                  <c:v>0.39140046296296299</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="h:mm:ss">
+                  <c:v>0.39181712962962961</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="h:mm:ss">
+                  <c:v>0.39221064814814816</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="h:mm:ss">
+                  <c:v>0.39309027777777777</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="h:mm:ss">
+                  <c:v>0.39348379629629626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DA8-4912-8B4C-E14A89993CFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532487456"/>
+        <c:axId val="529366848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532487456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529366848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="529366848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gram [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532487456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -634,7 +1155,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1178,7 +1699,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1686,7 +2207,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2212,7 +2733,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2738,7 +3259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3504,6 +4025,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6600,7 +7161,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC12E1FC-7FD2-4AD0-B576-EC6BF4B07893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6641,7 +7759,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6682,7 +7800,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6723,7 +7841,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6764,7 +7882,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6805,7 +7923,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7142,10 +8260,987 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE57BED6-BD05-4248-822F-792461AEF8B0}">
+  <dimension ref="A1:AD15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.38468750000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.38728009259259261</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.38792824074074073</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.38840277777777782</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.38886574074074076</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.38929398148148148</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.38976851851851851</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.39013888888888887</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.39053240740740741</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.39098379629629632</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.39140046296296299</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.39181712962962961</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.39221064814814816</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.39309027777777777</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.39348379629629626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>39</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>56</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>58</v>
+      </c>
+      <c r="X3">
+        <v>53</v>
+      </c>
+      <c r="Z3">
+        <v>47</v>
+      </c>
+      <c r="AB3">
+        <v>42</v>
+      </c>
+      <c r="AD3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.38468750000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.38728009259259261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.38792824074074073</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.38840277777777782</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.38886574074074076</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.38929398148148148</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.38976851851851851</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.39013888888888887</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.39053240740740741</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.39098379629629632</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.39140046296296299</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.39181712962962961</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.39221064814814816</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.39309027777777777</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.39348379629629626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>161</v>
+      </c>
+      <c r="I8">
+        <v>161</v>
+      </c>
+      <c r="K8">
+        <v>161</v>
+      </c>
+      <c r="M8">
+        <v>161</v>
+      </c>
+      <c r="O8">
+        <v>161</v>
+      </c>
+      <c r="Q8">
+        <v>161</v>
+      </c>
+      <c r="S8">
+        <v>161</v>
+      </c>
+      <c r="U8">
+        <v>161</v>
+      </c>
+      <c r="W8">
+        <v>161</v>
+      </c>
+      <c r="Y8">
+        <v>161</v>
+      </c>
+      <c r="AA8">
+        <v>161</v>
+      </c>
+      <c r="AC8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>161</v>
+      </c>
+      <c r="E9">
+        <v>161</v>
+      </c>
+      <c r="G9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>42</v>
+      </c>
+      <c r="O9">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>42</v>
+      </c>
+      <c r="S9">
+        <v>42</v>
+      </c>
+      <c r="U9">
+        <v>42</v>
+      </c>
+      <c r="W9">
+        <v>42</v>
+      </c>
+      <c r="Y9">
+        <v>42</v>
+      </c>
+      <c r="AA9">
+        <v>42</v>
+      </c>
+      <c r="AC9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>55</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>58</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>47</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>30</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.67525939999999995</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.82467809999999997</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0.89551630000000004</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0.93407552999999999</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.89812875000000003</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>0.63365499999999997</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0.79235809999999995</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>0.78656769999999998</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>0.85264087</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>0.83586234000000004</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>0.87720109999999996</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>0.85175157000000001</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>0.80103069999999998</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>0.67091244000000005</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>0.91998862999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.68918210000000002</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.94128020000000001</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>0.94700443999999995</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>0.83566149999999995</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0.88374180000000002</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.72359437000000004</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>0.89454999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0.97815870000000005</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>0.94607450000000004</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>0.94852006</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>0.65130836000000003</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>0.78178809999999999</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.75928600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BCC94A-0128-4E57-BB34-791F7504ED1E}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -8018,7 +10113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC15B88-0764-4B4B-BA91-009BE99AB146}">
   <dimension ref="A1:AL15"/>
   <sheetViews>
@@ -9241,7 +11336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18811CAF-6A04-4E51-9059-528EF9D597D5}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
@@ -10074,7 +12169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D0CC8-30F0-4343-A619-DD5299673032}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
@@ -11128,7 +13223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8006ABC5-B022-4F39-8946-44C63938BB4E}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
@@ -12179,7 +14274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D212AB58-0510-4C6C-A947-A6DBC7750DC0}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
@@ -13230,7 +15325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA828F-E22B-491A-8054-E5A7A330D5CD}">
   <dimension ref="A1"/>
   <sheetViews>
